--- a/change_log.xlsx
+++ b/change_log.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>Version: 1.2</t>
   </si>
@@ -102,6 +102,48 @@
   </si>
   <si>
     <t>Send email on First Start, License Expire and on Use on Unlicenses computer</t>
+  </si>
+  <si>
+    <t>Version: 1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Release Date: </t>
+  </si>
+  <si>
+    <t>Supplier Payment</t>
+  </si>
+  <si>
+    <t>Text on all buttons</t>
+  </si>
+  <si>
+    <t>Version: 1.4</t>
+  </si>
+  <si>
+    <t>Edit Quantity Option for Variable Price Product</t>
+  </si>
+  <si>
+    <t>By default shortkeys for Sales screen</t>
+  </si>
+  <si>
+    <t>Users Button above logo in Sales screen</t>
+  </si>
+  <si>
+    <t>Denormalized Sales Table</t>
+  </si>
+  <si>
+    <t>Removed unnecessary payments options</t>
+  </si>
+  <si>
+    <t>Fixed Refund Screen</t>
+  </si>
+  <si>
+    <t>Faciltiy to refund item without receipt</t>
+  </si>
+  <si>
+    <t>Removed "Edit Line" option</t>
+  </si>
+  <si>
+    <t>New Rights (Reduce Quantity Above Zero, Cancel Ticket, Refund(Minus Quantity))</t>
   </si>
 </sst>
 </file>
@@ -435,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B29"/>
+  <dimension ref="A3:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,6 +692,123 @@
         <v>25</v>
       </c>
     </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>2</v>
+      </c>
+      <c r="B43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>3</v>
+      </c>
+      <c r="B44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>5</v>
+      </c>
+      <c r="B46" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>6</v>
+      </c>
+      <c r="B47" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>7</v>
+      </c>
+      <c r="B48" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>8</v>
+      </c>
+      <c r="B49" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>9</v>
+      </c>
+      <c r="B50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
